--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.414160398243427</v>
+        <v>5.514022427201726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3608370888998315</v>
+        <v>0.3684789124302719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1383070968346882</v>
+        <v>0.1406357364924895</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.096605998145097</v>
+        <v>6.099402467902118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4008521192115457</v>
+        <v>0.4010977619018336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1563022325622777</v>
+        <v>0.1563358517146634</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.015838690071549</v>
+        <v>11.58703348188526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3341243549558959</v>
+        <v>0.7503804028989591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1273987108204915</v>
+        <v>0.266030591928174</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.081198233239853</v>
+        <v>11.53215073792658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3992770808551397</v>
+        <v>0.7453506360312033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1567149612048436</v>
+        <v>0.2635471428884006</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.047802700869124</v>
+        <v>11.33185652203657</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3361544051991939</v>
+        <v>0.7359566848021561</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1278874836043228</v>
+        <v>0.2603871857094896</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.170836075294752</v>
+        <v>11.59117923947148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3449249542446644</v>
+        <v>0.7506367281736321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1306729066270354</v>
+        <v>0.2661301358871139</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.272516613872243</v>
+        <v>11.52380718550393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3524876739280969</v>
+        <v>0.7457956248458365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.136384639808337</v>
+        <v>0.2643484903338583</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.514022427201726</v>
+        <v>11.69480320925912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3684789124302719</v>
+        <v>0.7577006729811941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1406357364924895</v>
+        <v>0.2674673312396543</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.094155561802221</v>
+        <v>11.54344033763439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4004905314595623</v>
+        <v>0.7466117015489572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1565459529637939</v>
+        <v>0.2640313358354272</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.099402467902118</v>
+        <v>11.52302878901314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4010977619018336</v>
+        <v>0.7451175171628225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1563358517146634</v>
+        <v>0.2635321711338575</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.97966703448636</v>
+        <v>6.844051878512294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4269645194056881</v>
+        <v>0.5770060092793938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1146191915947487</v>
+        <v>0.1645375572346129</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.495704104259165</v>
+        <v>12.53637543292065</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7028518797430563</v>
+        <v>0.9184600131168105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2339584251275037</v>
+        <v>0.3274884206294724</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.795611561690164</v>
+        <v>13.11441964007094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7284511962352409</v>
+        <v>0.9714460183091422</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2400230069665157</v>
+        <v>0.3395791737300994</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.117092615669071</v>
+        <v>9.227418865621519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6767417848678565</v>
+        <v>0.6422609209294532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2046919978940362</v>
+        <v>0.2073114197835011</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.844051878512294</v>
+        <v>6.98688636014879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5770060092793938</v>
+        <v>0.5892677077048385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1645375572346129</v>
+        <v>0.1647632080170712</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.53637543292065</v>
+        <v>12.30055836879745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9184600131168105</v>
+        <v>0.8971144022945274</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3274884206294724</v>
+        <v>0.322632171785901</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.11441964007094</v>
+        <v>12.78120316650465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9714460183091422</v>
+        <v>0.940779033281392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3395791737300994</v>
+        <v>0.3324650999693952</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.227418865621519</v>
+        <v>9.27364970360299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6422609209294532</v>
+        <v>0.646240030457338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2073114197835011</v>
+        <v>0.2080109781207875</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.33391357255301</v>
+        <v>12.34596079831642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9001204324265659</v>
+        <v>0.9012008752357054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3232801917604988</v>
+        <v>0.3234989492247322</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.34596079831642</v>
+        <v>12.33176531934865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9012008752357054</v>
+        <v>0.8999294350513971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3234989492247322</v>
+        <v>0.3232608186415891</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.33176531934865</v>
+        <v>12.30416545219575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8999294350513971</v>
+        <v>0.897425108277453</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3232608186415891</v>
+        <v>0.3226290578027166</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.30416545219575</v>
+        <v>12.36043035834386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.897425108277453</v>
+        <v>0.9025146444531028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3226290578027166</v>
+        <v>0.3238199459672657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.58703348188526</v>
+        <v>11.60850320227355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7503804028989591</v>
+        <v>0.7519893579545054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266030591928174</v>
+        <v>0.2664702874075517</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.59689413568971</v>
+        <v>11.57600847901434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7497038464278554</v>
+        <v>0.7483896391297868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2650843627721935</v>
+        <v>0.2647034544880228</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.33185652203657</v>
+        <v>9.289486156660008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7359566848021561</v>
+        <v>0.6123477282919672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2603871857094896</v>
+        <v>0.2134725216763489</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.59117923947148</v>
+        <v>11.59717070047019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7506367281736321</v>
+        <v>0.7512669030273277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2661301358871139</v>
+        <v>0.2662062350702051</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.52380718550393</v>
+        <v>11.51528224106722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7457956248458365</v>
+        <v>0.7451654021235744</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2643484903338583</v>
+        <v>0.2641078824101341</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.69480320925912</v>
+        <v>11.43963459779232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7577006729811941</v>
+        <v>0.7402031303867412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2674673312396543</v>
+        <v>0.2613489214068946</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.83482042991751</v>
+        <v>11.64532970939507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7653340981519382</v>
+        <v>0.7528135781932161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2704519777209195</v>
+        <v>0.2663189314232774</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.59852719691123</v>
+        <v>11.68278561288872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7499146364900114</v>
+        <v>0.7550333816396286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2651629311749972</v>
+        <v>0.2666573588719828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.36043035834386</v>
+        <v>12.37714314104299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9025146444531028</v>
+        <v>0.9040304651939126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3238199459672657</v>
+        <v>0.324192694105262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.66713278826331</v>
+        <v>12.60420852594993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9304200500930225</v>
+        <v>0.9247751561260399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3303091841545143</v>
+        <v>0.3292003390310872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.60850320227355</v>
+        <v>23.22505868646588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7519893579545054</v>
+        <v>0.7523749953000148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2664702874075517</v>
+        <v>0.2665226975523973</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57600847901434</v>
+        <v>23.14269740957769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7483896391297868</v>
+        <v>0.7480728479032366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2647034544880228</v>
+        <v>0.2645843476808517</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.289486156660008</v>
+        <v>21.30980940383979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6123477282919672</v>
+        <v>0.6965782876663719</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2134725216763489</v>
+        <v>0.2451153791897074</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.59717070047019</v>
+        <v>23.2345348004466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7512669030273277</v>
+        <v>0.752603577399802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2662062350702051</v>
+        <v>0.2666321680214743</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.51528224106722</v>
+        <v>23.0311942685761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7451654021235744</v>
+        <v>0.7451635430906032</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2641078824101341</v>
+        <v>0.2641147701998458</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.43963459779232</v>
+        <v>23.36940869470637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7402031303867412</v>
+        <v>0.7552323826070314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2613489214068946</v>
+        <v>0.2677305727310171</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.64532970939507</v>
+        <v>23.30916334163767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7528135781932161</v>
+        <v>0.7534104278936891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2663189314232774</v>
+        <v>0.2665163132674619</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.68278561288872</v>
+        <v>23.37659608496189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7550333816396286</v>
+        <v>0.7554984262302081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2666573588719828</v>
+        <v>0.2672813373848215</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.98688636014879</v>
+        <v>13.97377272029755</v>
       </c>
       <c r="C10" t="n">
         <v>0.5892677077048385</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.37714314104299</v>
+        <v>24.68134398839987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9040304651939126</v>
+        <v>0.9007260790248118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324192694105262</v>
+        <v>0.3233999211184654</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.60420852594993</v>
+        <v>25.20841705189986</v>
       </c>
       <c r="C12" t="n">
         <v>0.9247751561260399</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.369273820108399</v>
+        <v>18.73854764021679</v>
       </c>
       <c r="C13" t="n">
         <v>0.6513626670740793</v>

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_treino.xlsx
+++ b/Modelos em Python/14_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="12">
